--- a/Defuzzificaion Methods Experimentation.xlsx
+++ b/Defuzzificaion Methods Experimentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Uni 20-21\CMP304-AI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58714A62-5499-40BC-8E95-95D32EF454E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015B87DC-29F4-46A2-8CE2-75AAA2CE0FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82A89B87-0247-47FD-A467-74D1AA2AEC1B}"/>
   </bookViews>
@@ -3184,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6513487-DD1B-4873-9B17-7A3CAA9057BF}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
